--- a/SYM.xlsx
+++ b/SYM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB18C750-AF5F-44EE-9699-AE2852AB4576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0D328A-EEB9-0545-A3CE-111A680DD777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32700" yWindow="2595" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{C69F18C6-1841-4B9F-A5B1-B1CF2808BC6C}"/>
+    <workbookView xWindow="12000" yWindow="760" windowWidth="22560" windowHeight="20500" activeTab="1" xr2:uid="{C69F18C6-1841-4B9F-A5B1-B1CF2808BC6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Price</t>
   </si>
@@ -257,15 +257,24 @@
   <si>
     <t>F2021</t>
   </si>
+  <si>
+    <t>FQ125</t>
+  </si>
+  <si>
+    <t>480-500</t>
+  </si>
+  <si>
+    <t>12-16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -284,12 +293,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -314,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -334,11 +337,11 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -347,6 +350,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -421,13 +427,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>20602</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>20602</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>64942</xdr:rowOff>
@@ -815,20 +821,20 @@
   <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -842,17 +848,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>1734</v>
+        <v>2397</v>
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -866,7 +872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I6" t="s">
         <v>4</v>
       </c>
@@ -877,16 +883,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>863.53099999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+        <v>1526.5309999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I10" t="s">
         <v>36</v>
       </c>
@@ -897,7 +903,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I11" t="s">
         <v>37</v>
       </c>
@@ -908,7 +914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I12" t="s">
         <v>38</v>
       </c>
@@ -919,12 +925,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I16" t="s">
         <v>43</v>
       </c>
@@ -936,31 +942,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB8A7B7-6A27-464B-8DB4-D748046550EC}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="14" width="9.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="3"/>
+    <col min="5" max="15" width="9.5" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
@@ -997,20 +1003,23 @@
       <c r="N2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C3" s="9">
         <v>44554</v>
       </c>
@@ -1047,21 +1056,24 @@
       <c r="N3" s="9">
         <v>45565</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="R3" s="11">
+      <c r="O3" s="9">
+        <v>45657</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="S3" s="11">
         <v>44464</v>
       </c>
-      <c r="S3" s="11">
+      <c r="T3" s="11">
         <v>44828</v>
       </c>
-      <c r="T3" s="11">
+      <c r="U3" s="11">
         <v>45199</v>
       </c>
-      <c r="U3" s="11">
+      <c r="V3" s="11">
         <v>45565</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1100,18 +1112,19 @@
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="R4" s="2">
+      <c r="P4" s="4"/>
+      <c r="S4" s="2">
         <v>227.56299999999999</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>567.99300000000005</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <f>SUM(G4:J4)</f>
         <v>1138.059</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1150,18 +1163,19 @@
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="R5" s="2">
+      <c r="P5" s="4"/>
+      <c r="S5" s="2">
         <v>4.0090000000000003</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>3.7349999999999999</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <f>SUM(G5:J5)</f>
         <v>6.734</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1200,87 +1214,91 @@
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="R6" s="2">
+      <c r="P6" s="4"/>
+      <c r="S6" s="2">
         <v>20.341000000000001</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>21.584</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <f>SUM(G6:J6)</f>
         <v>32.231000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
+        <f t="shared" ref="C7:M7" si="0">SUM(C4:C6)</f>
         <v>77.063999999999993</v>
       </c>
       <c r="D7" s="6">
-        <f>SUM(D4:D6)</f>
+        <f t="shared" si="0"/>
         <v>96.284000000000006</v>
       </c>
       <c r="E7" s="6">
-        <f>SUM(E4:E6)</f>
+        <f t="shared" si="0"/>
         <v>175.55199999999999</v>
       </c>
       <c r="F7" s="6">
-        <f>SUM(F4:F6)</f>
+        <f t="shared" si="0"/>
         <v>244.41199999999998</v>
       </c>
       <c r="G7" s="6">
-        <f>SUM(G4:G6)</f>
+        <f t="shared" si="0"/>
         <v>206.44500000000002</v>
       </c>
       <c r="H7" s="6">
-        <f>SUM(H4:H6)</f>
+        <f t="shared" si="0"/>
         <v>266.85400000000004</v>
       </c>
       <c r="I7" s="6">
-        <f>SUM(I4:I6)</f>
+        <f t="shared" si="0"/>
         <v>311.83699999999999</v>
       </c>
       <c r="J7" s="6">
-        <f>SUM(J4:J6)</f>
+        <f t="shared" si="0"/>
         <v>391.88799999999998</v>
       </c>
       <c r="K7" s="6">
-        <f>SUM(K4:K6)</f>
+        <f t="shared" si="0"/>
         <v>368.45</v>
       </c>
       <c r="L7" s="6">
-        <f>SUM(L4:L6)</f>
+        <f t="shared" si="0"/>
         <v>424.30099999999993</v>
       </c>
       <c r="M7" s="6">
-        <f>SUM(M4:M6)</f>
+        <f t="shared" si="0"/>
         <v>491.86200000000002</v>
       </c>
       <c r="N7" s="6">
-        <v>480</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="R7" s="5">
-        <f>SUM(R4:R6)</f>
-        <v>251.91300000000001</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="6"/>
       <c r="S7" s="5">
         <f>SUM(S4:S6)</f>
-        <v>593.31200000000001</v>
+        <v>251.91300000000001</v>
       </c>
       <c r="T7" s="5">
         <f>SUM(T4:T6)</f>
+        <v>593.31200000000001</v>
+      </c>
+      <c r="U7" s="5">
+        <f>SUM(U4:U6)</f>
         <v>1177.0239999999999</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="5">
         <f>SUM(K7:N7)</f>
-        <v>1764.6130000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1861.6130000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1319,81 +1337,83 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="R8" s="2">
+      <c r="P8" s="4"/>
+      <c r="S8" s="2">
         <v>241.46600000000001</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>493.66500000000002</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <f>SUM(G8:J8)</f>
         <v>987.15200000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4">
-        <f>+C7-C8</f>
+        <f t="shared" ref="C9:M9" si="1">+C7-C8</f>
         <v>14.467999999999996</v>
       </c>
       <c r="D9" s="4">
-        <f>+D7-D8</f>
+        <f t="shared" si="1"/>
         <v>16.906000000000006</v>
       </c>
       <c r="E9" s="4">
-        <f>+E7-E8</f>
+        <f t="shared" si="1"/>
         <v>31.543999999999983</v>
       </c>
       <c r="F9" s="4">
-        <f>+F7-F8</f>
+        <f t="shared" si="1"/>
         <v>36.728999999999985</v>
       </c>
       <c r="G9" s="4">
-        <f>+G7-G8</f>
+        <f t="shared" si="1"/>
         <v>35.327000000000027</v>
       </c>
       <c r="H9" s="4">
-        <f>+H7-H8</f>
+        <f t="shared" si="1"/>
         <v>42.847000000000037</v>
       </c>
       <c r="I9" s="4">
-        <f>+I7-I8</f>
+        <f t="shared" si="1"/>
         <v>52.908999999999992</v>
       </c>
       <c r="J9" s="4">
-        <f>+J7-J8</f>
+        <f t="shared" si="1"/>
         <v>58.788999999999987</v>
       </c>
       <c r="K9" s="4">
-        <f>+K7-K8</f>
+        <f t="shared" si="1"/>
         <v>70.106999999999971</v>
       </c>
       <c r="L9" s="4">
-        <f>+L7-L8</f>
+        <f t="shared" si="1"/>
         <v>44.161999999999921</v>
       </c>
       <c r="M9" s="4">
-        <f>+M7-M8</f>
+        <f t="shared" si="1"/>
         <v>67.406000000000006</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="R9" s="2">
-        <f>+R7-R8</f>
-        <v>10.447000000000003</v>
-      </c>
+      <c r="P9" s="4"/>
       <c r="S9" s="2">
         <f>+S7-S8</f>
-        <v>99.646999999999991</v>
+        <v>10.447000000000003</v>
       </c>
       <c r="T9" s="2">
         <f>+T7-T8</f>
+        <v>99.646999999999991</v>
+      </c>
+      <c r="U9" s="2">
+        <f>+U7-U8</f>
         <v>189.87199999999984</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1432,18 +1452,19 @@
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="R10" s="2">
+      <c r="P10" s="4"/>
+      <c r="S10" s="2">
         <v>73.385999999999996</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>124.14100000000001</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <f>SUM(G10:J10)</f>
         <v>192.042</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1482,144 +1503,149 @@
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="R11" s="2">
+      <c r="P11" s="4"/>
+      <c r="S11" s="2">
         <v>59.442</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T11" s="2">
         <v>115.881</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <f>SUM(G11:J11)</f>
         <v>217.92700000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4">
-        <f>+C10+C11</f>
+        <f t="shared" ref="C12:M12" si="2">+C10+C11</f>
         <v>37.542999999999999</v>
       </c>
       <c r="D12" s="4">
-        <f>+D10+D11</f>
+        <f t="shared" si="2"/>
         <v>46.867000000000004</v>
       </c>
       <c r="E12" s="4">
-        <f>+E10+E11</f>
+        <f t="shared" si="2"/>
         <v>64.575000000000003</v>
       </c>
       <c r="F12" s="4">
-        <f>+F10+F11</f>
+        <f t="shared" si="2"/>
         <v>91.037000000000006</v>
       </c>
       <c r="G12" s="4">
-        <f>+G10+G11</f>
+        <f t="shared" si="2"/>
         <v>104.76300000000001</v>
       </c>
       <c r="H12" s="4">
-        <f>+H10+H11</f>
+        <f t="shared" si="2"/>
         <v>97.563999999999993</v>
       </c>
       <c r="I12" s="4">
-        <f>+I10+I11</f>
+        <f t="shared" si="2"/>
         <v>94.918000000000006</v>
       </c>
       <c r="J12" s="4">
-        <f>+J10+J11</f>
+        <f t="shared" si="2"/>
         <v>112.724</v>
       </c>
       <c r="K12" s="4">
-        <f>+K10+K11</f>
+        <f t="shared" si="2"/>
         <v>89.156000000000006</v>
       </c>
       <c r="L12" s="4">
-        <f>+L10+L11</f>
+        <f t="shared" si="2"/>
         <v>95.114000000000004</v>
       </c>
       <c r="M12" s="4">
-        <f>+M10+M11</f>
+        <f t="shared" si="2"/>
         <v>92.593000000000004</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="R12" s="2">
-        <f>+R10+R11</f>
-        <v>132.828</v>
-      </c>
+      <c r="P12" s="4"/>
       <c r="S12" s="2">
         <f>+S10+S11</f>
-        <v>240.02199999999999</v>
+        <v>132.828</v>
       </c>
       <c r="T12" s="2">
         <f>+T10+T11</f>
+        <v>240.02199999999999</v>
+      </c>
+      <c r="U12" s="2">
+        <f>+U10+U11</f>
         <v>409.96900000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="4">
-        <f>+C9-C12</f>
+        <f t="shared" ref="C13:M13" si="3">+C9-C12</f>
         <v>-23.075000000000003</v>
       </c>
       <c r="D13" s="4">
-        <f>+D9-D12</f>
+        <f t="shared" si="3"/>
         <v>-29.960999999999999</v>
       </c>
       <c r="E13" s="4">
-        <f>+E9-E12</f>
+        <f t="shared" si="3"/>
         <v>-33.03100000000002</v>
       </c>
       <c r="F13" s="4">
-        <f>+F9-F12</f>
+        <f t="shared" si="3"/>
         <v>-54.308000000000021</v>
       </c>
       <c r="G13" s="4">
-        <f>+G9-G12</f>
+        <f t="shared" si="3"/>
         <v>-69.435999999999979</v>
       </c>
       <c r="H13" s="4">
-        <f>+H9-H12</f>
+        <f t="shared" si="3"/>
         <v>-54.716999999999956</v>
       </c>
       <c r="I13" s="4">
-        <f>+I9-I12</f>
+        <f t="shared" si="3"/>
         <v>-42.009000000000015</v>
       </c>
       <c r="J13" s="4">
-        <f>+J9-J12</f>
+        <f t="shared" si="3"/>
         <v>-53.935000000000016</v>
       </c>
       <c r="K13" s="4">
-        <f>+K9-K12</f>
+        <f t="shared" si="3"/>
         <v>-19.049000000000035</v>
       </c>
       <c r="L13" s="4">
-        <f>+L9-L12</f>
+        <f t="shared" si="3"/>
         <v>-50.952000000000083</v>
       </c>
       <c r="M13" s="4">
-        <f>+M9-M12</f>
+        <f t="shared" si="3"/>
         <v>-25.186999999999998</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="R13" s="2">
-        <f>+R9-R12</f>
-        <v>-122.381</v>
-      </c>
+      <c r="O13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="4"/>
       <c r="S13" s="2">
         <f>+S9-S12</f>
-        <v>-140.375</v>
+        <v>-122.381</v>
       </c>
       <c r="T13" s="2">
         <f>+T9-T12</f>
+        <v>-140.375</v>
+      </c>
+      <c r="U13" s="2">
+        <f>+U9-U12</f>
         <v>-220.09700000000021</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1658,79 +1684,80 @@
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="R14" s="2">
+      <c r="P14" s="4"/>
+      <c r="S14" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="S14" s="2">
+      <c r="T14" s="2">
         <v>1.286</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="2">
         <f>SUM(G14:J14)</f>
         <v>10.715999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="4">
-        <f>+C13+C14</f>
+        <f t="shared" ref="C15:M15" si="4">+C13+C14</f>
         <v>-23.053000000000004</v>
       </c>
       <c r="D15" s="4">
-        <f>+D13+D14</f>
+        <f t="shared" si="4"/>
         <v>-29.902999999999999</v>
       </c>
       <c r="E15" s="4">
-        <f>+E13+E14</f>
+        <f t="shared" si="4"/>
         <v>-32.875000000000021</v>
       </c>
       <c r="F15" s="4">
-        <f>+F13+F14</f>
+        <f t="shared" si="4"/>
         <v>-53.258000000000024</v>
       </c>
       <c r="G15" s="4">
-        <f>+G13+G14</f>
+        <f t="shared" si="4"/>
         <v>-67.601999999999975</v>
       </c>
       <c r="H15" s="4">
-        <f>+H13+H14</f>
+        <f t="shared" si="4"/>
         <v>-52.432999999999957</v>
       </c>
       <c r="I15" s="4">
-        <f>+I13+I14</f>
+        <f t="shared" si="4"/>
         <v>-39.072000000000017</v>
       </c>
       <c r="J15" s="4">
-        <f>+J13+J14</f>
+        <f t="shared" si="4"/>
         <v>-50.274000000000015</v>
       </c>
       <c r="K15" s="4">
-        <f>+K13+K14</f>
+        <f t="shared" si="4"/>
         <v>-12.850000000000035</v>
       </c>
       <c r="L15" s="4">
-        <f>+L13+L14</f>
+        <f t="shared" si="4"/>
         <v>-41.140000000000086</v>
       </c>
       <c r="M15" s="4">
-        <f>+M13+M14</f>
+        <f t="shared" si="4"/>
         <v>-13.571999999999997</v>
-      </c>
-      <c r="R15" s="2">
-        <f>+R13+R14</f>
-        <v>-122.31400000000001</v>
       </c>
       <c r="S15" s="2">
         <f>+S13+S14</f>
-        <v>-139.089</v>
+        <v>-122.31400000000001</v>
       </c>
       <c r="T15" s="2">
         <f>+T13+T14</f>
+        <v>-139.089</v>
+      </c>
+      <c r="U15" s="2">
+        <f>+U13+U14</f>
         <v>-209.3810000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1767,140 +1794,140 @@
       <c r="M16" s="4">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
       <c r="S16">
         <v>0</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
         <f>SUM(G16:J16)</f>
         <v>-4.6079999999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="4">
-        <f>+C15-C16</f>
+        <f t="shared" ref="C17:M17" si="5">+C15-C16</f>
         <v>-23.053000000000004</v>
       </c>
       <c r="D17" s="4">
-        <f>+D15-D16</f>
+        <f t="shared" si="5"/>
         <v>-29.902999999999999</v>
       </c>
       <c r="E17" s="4">
-        <f>+E15-E16</f>
+        <f t="shared" si="5"/>
         <v>-32.875000000000021</v>
       </c>
       <c r="F17" s="4">
-        <f>+F15-F16</f>
+        <f t="shared" si="5"/>
         <v>-53.258000000000024</v>
       </c>
       <c r="G17" s="4">
-        <f>+G15-G16</f>
+        <f t="shared" si="5"/>
         <v>-67.85299999999998</v>
       </c>
       <c r="H17" s="4">
-        <f>+H15-H16</f>
+        <f t="shared" si="5"/>
         <v>-52.432999999999957</v>
       </c>
       <c r="I17" s="4">
-        <f>+I15-I16</f>
+        <f t="shared" si="5"/>
         <v>-39.072000000000017</v>
       </c>
       <c r="J17" s="4">
-        <f>+J15-J16</f>
+        <f t="shared" si="5"/>
         <v>-45.415000000000013</v>
       </c>
       <c r="K17" s="4">
-        <f>+K15-K16</f>
+        <f t="shared" si="5"/>
         <v>-12.850000000000035</v>
       </c>
       <c r="L17" s="4">
-        <f>+L15-L16</f>
+        <f t="shared" si="5"/>
         <v>-41.140000000000086</v>
       </c>
       <c r="M17" s="4">
-        <f>+M15-M16</f>
+        <f t="shared" si="5"/>
         <v>-13.571999999999997</v>
-      </c>
-      <c r="R17" s="2">
-        <f>+R15-R16</f>
-        <v>-122.31400000000001</v>
       </c>
       <c r="S17" s="2">
         <f>+S15-S16</f>
-        <v>-139.089</v>
+        <v>-122.31400000000001</v>
       </c>
       <c r="T17" s="2">
         <f>+T15-T16</f>
+        <v>-139.089</v>
+      </c>
+      <c r="U17" s="2">
+        <f>+U15-U16</f>
         <v>-204.7730000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="8">
-        <f>+C17/C19</f>
+        <f t="shared" ref="C18:M18" si="6">+C17/C19</f>
         <v>-23.053000000000004</v>
       </c>
       <c r="D18" s="8">
-        <f>+D17/D19</f>
+        <f t="shared" si="6"/>
         <v>-29.902999999999999</v>
       </c>
       <c r="E18" s="8">
-        <f>+E17/E19</f>
+        <f t="shared" si="6"/>
         <v>-0.64888096603858714</v>
       </c>
       <c r="F18" s="8">
-        <f>+F17/F19</f>
+        <f t="shared" si="6"/>
         <v>-0.97184510462727003</v>
       </c>
       <c r="G18" s="8">
-        <f>+G17/G19</f>
+        <f t="shared" si="6"/>
         <v>-1.1651482859958318</v>
       </c>
       <c r="H18" s="8">
-        <f>+H17/H19</f>
+        <f t="shared" si="6"/>
         <v>-0.86661647972230915</v>
       </c>
       <c r="I18" s="8">
-        <f>+I17/I19</f>
+        <f t="shared" si="6"/>
         <v>-0.63240813969098209</v>
       </c>
       <c r="J18" s="8">
-        <f>+J17/J19</f>
+        <f t="shared" si="6"/>
         <v>-0.59739726842055718</v>
       </c>
       <c r="K18" s="8">
-        <f>+K17/K19</f>
+        <f t="shared" si="6"/>
         <v>-0.15422293048219624</v>
       </c>
       <c r="L18" s="8">
-        <f>+L17/L19</f>
+        <f t="shared" si="6"/>
         <v>-0.44215749686580397</v>
       </c>
       <c r="M18" s="8">
-        <f>+M17/M19</f>
+        <f t="shared" si="6"/>
         <v>-0.13252057691483737</v>
-      </c>
-      <c r="R18" s="1">
-        <f>+R17/R19</f>
-        <v>-122.31400000000001</v>
       </c>
       <c r="S18" s="1">
         <f>+S17/S19</f>
-        <v>-2.5716085533620743</v>
+        <v>-122.31400000000001</v>
       </c>
       <c r="T18" s="1">
         <f>+T17/T19</f>
+        <v>-2.5716085533620743</v>
+      </c>
+      <c r="U18" s="1">
+        <f>+U17/U19</f>
         <v>-3.1827404335004008</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1937,23 +1964,23 @@
       <c r="M19" s="4">
         <v>102.41428399999999</v>
       </c>
-      <c r="R19" s="2">
+      <c r="S19" s="2">
         <v>1</v>
       </c>
-      <c r="S19" s="2">
+      <c r="T19" s="2">
         <v>54.086381000000003</v>
       </c>
-      <c r="T19" s="2">
+      <c r="U19" s="2">
         <v>64.338579999999993</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="E20" s="4"/>
       <c r="I20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="22" spans="2:21" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
@@ -1962,19 +1989,19 @@
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13">
-        <f t="shared" ref="F22:J22" si="0">+G7/C7-1</f>
+        <f t="shared" ref="G22:J22" si="7">+G7/C7-1</f>
         <v>1.6788772967922769</v>
       </c>
       <c r="H22" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.7715300569149601</v>
       </c>
       <c r="I22" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.77632268501640533</v>
       </c>
       <c r="J22" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.60339099553213438</v>
       </c>
       <c r="K22" s="13">
@@ -1990,49 +2017,50 @@
         <v>0.57730480988465138</v>
       </c>
       <c r="N22" s="13">
-        <f t="shared" ref="N22" si="1">+N7/J7-1</f>
-        <v>0.22483975013269109</v>
-      </c>
-      <c r="O22" s="12"/>
-      <c r="S22" s="15">
-        <f>+S7/R7-1</f>
-        <v>1.3552258120859184</v>
-      </c>
+        <f t="shared" ref="N22" si="8">+N7/J7-1</f>
+        <v>0.47235944963867227</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22" s="12"/>
       <c r="T22" s="15">
         <f>+T7/S7-1</f>
-        <v>0.98381964295345425</v>
+        <v>1.3552258120859184</v>
       </c>
       <c r="U22" s="15">
         <f>+U7/T7-1</f>
-        <v>0.49921581887879962</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0.98381964295345425</v>
+      </c>
+      <c r="V22" s="15">
+        <f>+V7/U7-1</f>
+        <v>0.58162705263444092</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <f t="shared" ref="C23:I23" si="2">+C9/C7</f>
+        <f t="shared" ref="C23:H23" si="9">+C9/C7</f>
         <v>0.1877400602096958</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.1755847285114869</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.17968465184104984</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.15027494558368651</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.1711206374579187</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0.16056345417344328</v>
       </c>
       <c r="I23" s="7">
@@ -2040,39 +2068,40 @@
         <v>0.16966876926086383</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" ref="J23:N23" si="3">+J9/J7</f>
+        <f t="shared" ref="J23:N23" si="10">+J9/J7</f>
         <v>0.15001480014698074</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.190275478355272</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.10408177213817532</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0.13704250379171395</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R23" s="7">
-        <f t="shared" ref="R23:T23" si="4">+R9/R7</f>
+      <c r="O23" s="7"/>
+      <c r="S23" s="7">
+        <f t="shared" ref="S23:U23" si="11">+S9/S7</f>
         <v>4.1470666460246206E-2</v>
       </c>
-      <c r="S23" s="7">
-        <f t="shared" si="4"/>
+      <c r="T23" s="7">
+        <f t="shared" si="11"/>
         <v>0.1679504206892832</v>
       </c>
-      <c r="T23" s="7">
-        <f t="shared" si="4"/>
+      <c r="U23" s="7">
+        <f t="shared" si="11"/>
         <v>0.16131531727475384</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -2104,17 +2133,18 @@
         <v>50.384999999999998</v>
       </c>
       <c r="N28" s="4"/>
-      <c r="R28" s="2">
+      <c r="O28" s="4"/>
+      <c r="S28" s="2">
         <v>109.56699999999999</v>
       </c>
-      <c r="S28" s="2">
+      <c r="T28" s="2">
         <v>-148.24700000000001</v>
       </c>
-      <c r="T28" s="2">
+      <c r="U28" s="2">
         <v>230.79400000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -2145,105 +2175,107 @@
       <c r="M29" s="4">
         <v>17.143000000000001</v>
       </c>
-      <c r="R29" s="2">
+      <c r="S29" s="2">
         <v>12.167999999999999</v>
       </c>
-      <c r="S29" s="2">
+      <c r="T29" s="2">
         <v>17.95</v>
       </c>
-      <c r="T29" s="2">
+      <c r="U29" s="2">
         <v>15.688000000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="4">
-        <f>+E28-E29</f>
+        <f t="shared" ref="E30:N30" si="12">+E28-E29</f>
         <v>-103.95700000000001</v>
       </c>
       <c r="F30" s="4">
-        <f>+F28-F29</f>
+        <f t="shared" si="12"/>
         <v>-58.698999999999998</v>
       </c>
       <c r="G30" s="4">
-        <f>+G28-G29</f>
+        <f t="shared" si="12"/>
         <v>94.062000000000012</v>
       </c>
       <c r="H30" s="4">
-        <f>+H28-H29</f>
+        <f t="shared" si="12"/>
         <v>25.295000000000002</v>
       </c>
       <c r="I30" s="4">
-        <f>+I28-I29</f>
+        <f t="shared" si="12"/>
         <v>46.546000000000006</v>
       </c>
       <c r="J30" s="4">
-        <f>+J28-J29</f>
+        <f t="shared" si="12"/>
         <v>43.564999999999998</v>
       </c>
       <c r="K30" s="4">
-        <f>+K28-K29</f>
+        <f t="shared" si="12"/>
         <v>-33.143000000000001</v>
       </c>
       <c r="L30" s="4">
-        <f>+L28-L29</f>
+        <f t="shared" si="12"/>
         <v>18.201000000000001</v>
       </c>
       <c r="M30" s="4">
-        <f>+M28-M29</f>
+        <f t="shared" si="12"/>
         <v>33.241999999999997</v>
       </c>
       <c r="N30" s="4">
-        <f>+N28-N29</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R30" s="2">
-        <f>+R28-R29</f>
-        <v>97.399000000000001</v>
-      </c>
+      <c r="O30" s="4"/>
       <c r="S30" s="2">
         <f>+S28-S29</f>
-        <v>-166.197</v>
+        <v>97.399000000000001</v>
       </c>
       <c r="T30" s="2">
         <f>+T28-T29</f>
+        <v>-166.197</v>
+      </c>
+      <c r="U30" s="2">
+        <f>+U28-U29</f>
         <v>215.10600000000002</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>49</v>
       </c>
       <c r="H31" s="6">
-        <f>SUM(E30:H30)</f>
+        <f t="shared" ref="H31:N31" si="13">SUM(E30:H30)</f>
         <v>-43.298999999999992</v>
       </c>
       <c r="I31" s="6">
-        <f>SUM(F30:I30)</f>
+        <f t="shared" si="13"/>
         <v>107.20400000000002</v>
       </c>
       <c r="J31" s="6">
-        <f>SUM(G30:J30)</f>
+        <f t="shared" si="13"/>
         <v>209.46800000000002</v>
       </c>
       <c r="K31" s="6">
-        <f>SUM(H30:K30)</f>
+        <f t="shared" si="13"/>
         <v>82.263000000000005</v>
       </c>
       <c r="L31" s="6">
-        <f>SUM(I30:L30)</f>
+        <f t="shared" si="13"/>
         <v>75.169000000000011</v>
       </c>
       <c r="M31" s="6">
-        <f>SUM(J30:M30)</f>
+        <f t="shared" si="13"/>
         <v>61.864999999999995</v>
       </c>
       <c r="N31" s="6">
-        <f>SUM(K30:N30)</f>
+        <f t="shared" si="13"/>
         <v>18.299999999999997</v>
       </c>
+      <c r="O31" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
